--- a/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3819</v>
+        <v>3831</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002964403390358988</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01510989252930557</v>
+        <v>0.01515981315044787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4300</v>
+        <v>4235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001578998136822053</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009063610511317934</v>
+        <v>0.008926144215393429</v>
       </c>
     </row>
     <row r="8">
@@ -986,7 +986,7 @@
         <v>251967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>248897</v>
+        <v>248885</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>252716</v>
@@ -995,7 +995,7 @@
         <v>0.997035596609641</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9848901074706941</v>
+        <v>0.9848401868495521</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>473699</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>470148</v>
+        <v>470213</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>474448</v>
@@ -1016,7 +1016,7 @@
         <v>0.9984210018631779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9909363894886828</v>
+        <v>0.9910738557846073</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2890</v>
+        <v>2859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003836172721714983</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01974818510074631</v>
+        <v>0.01953398895364316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3466</v>
+        <v>2792</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002345047159770939</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01448007134547663</v>
+        <v>0.01166146676147606</v>
       </c>
     </row>
     <row r="11">
@@ -1187,16 +1187,16 @@
         <v>145781</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143452</v>
+        <v>143483</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>146342</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9961638272782848</v>
+        <v>0.996163827278285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9802518148992536</v>
+        <v>0.9804660110463569</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1208,16 +1208,16 @@
         <v>238835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>235930</v>
+        <v>236604</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>239396</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9976549528402291</v>
+        <v>0.9976549528402292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9855199286545239</v>
+        <v>0.9883385332385241</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3866</v>
+        <v>3775</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.005885797257897868</v>
+        <v>0.005885797257897867</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03048162611840654</v>
+        <v>0.02976216484787547</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3660</v>
+        <v>3789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003103524917698477</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0152133700444781</v>
+        <v>0.01575040295208859</v>
       </c>
     </row>
     <row r="20">
@@ -1713,16 +1713,16 @@
         <v>126099</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>122980</v>
+        <v>123071</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>126846</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9941142027421023</v>
+        <v>0.9941142027421022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9695183738815937</v>
+        <v>0.9702378351521247</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>239815</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>236902</v>
+        <v>236773</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>240562</v>
@@ -1756,7 +1756,7 @@
         <v>0.9968964750823015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9847866299555221</v>
+        <v>0.9842495970479115</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3590</v>
+        <v>4042</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001971757289599121</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01007867122215045</v>
+        <v>0.01134832599099641</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3576</v>
+        <v>3180</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0009905678590704636</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005043958246036984</v>
+        <v>0.004484962223805591</v>
       </c>
     </row>
     <row r="23">
@@ -1927,16 +1927,16 @@
         <v>355477</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>352589</v>
+        <v>352137</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>356179</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9980282427104009</v>
+        <v>0.9980282427104008</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9899213287778494</v>
+        <v>0.9886516740090038</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -1948,16 +1948,16 @@
         <v>708284</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>705410</v>
+        <v>705806</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>708986</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9990094321409294</v>
+        <v>0.9990094321409296</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9949560417539629</v>
+        <v>0.995515037776194</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0004760587750344625</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2242,19 +2242,19 @@
         <v>2013</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001186165451155017</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2266,16 +2266,16 @@
         <v>743</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0008451025912070222</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="29">
@@ -2292,7 +2292,7 @@
         <v>1567527</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1564544</v>
+        <v>1564495</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>1568274</v>
@@ -2301,7 +2301,7 @@
         <v>0.9995239412249656</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9976213232544749</v>
+        <v>0.997590127245104</v>
       </c>
       <c r="I29" s="6" t="n">
         <v>1</v>
@@ -2313,19 +2313,19 @@
         <v>1694923</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1691386</v>
+        <v>1691526</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1696379</v>
+        <v>1696374</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9988138345488449</v>
+        <v>0.9988138345488451</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9967292239251017</v>
+        <v>0.9968119769439031</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9996719613770162</v>
+        <v>0.9996690188545363</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3832</v>
@@ -2334,7 +2334,7 @@
         <v>3262451</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3258305</v>
+        <v>3258759</v>
       </c>
       <c r="T29" s="5" t="n">
         <v>3264467</v>
@@ -2343,10 +2343,10 @@
         <v>0.9991548974087929</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9978851343208828</v>
+        <v>0.9980243368092431</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9997725824109049</v>
+        <v>0.9997725529568107</v>
       </c>
     </row>
     <row r="30">
